--- a/Document/数据字典(人事、进销存).xlsx
+++ b/Document/数据字典(人事、进销存).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385" activeTab="2"/>
+    <workbookView windowWidth="12015" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908">
   <si>
     <t>表共同字段</t>
   </si>
@@ -3026,6 +3026,9 @@
     <t>盘点单号</t>
   </si>
   <si>
+    <t>RetOrderStorehouse</t>
+  </si>
+  <si>
     <t>CheckStockID</t>
   </si>
   <si>
@@ -3053,6 +3056,9 @@
     <t>RentOrderCode</t>
   </si>
   <si>
+    <t>领用单号</t>
+  </si>
+  <si>
     <t>BorrID</t>
   </si>
   <si>
@@ -3080,7 +3086,10 @@
     <t>psRetRentOrder</t>
   </si>
   <si>
-    <t>RetRentCode</t>
+    <t>RetRentOrderCode</t>
+  </si>
+  <si>
+    <t>归还单号</t>
   </si>
   <si>
     <t>归还的目的仓库ID</t>
@@ -3092,7 +3101,10 @@
     <t>psRetRentOrderDetail</t>
   </si>
   <si>
-    <t>RetRentIOrderD</t>
+    <t>RetRentIOrderID</t>
+  </si>
+  <si>
+    <t>归还单主表ID</t>
   </si>
   <si>
     <t>psSellOrder</t>
@@ -3138,6 +3150,9 @@
   </si>
   <si>
     <t>SellOrderID</t>
+  </si>
+  <si>
+    <t>销售单主表ID</t>
   </si>
   <si>
     <t>销售数量</t>
@@ -3399,10 +3414,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -3649,29 +3664,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3681,30 +3683,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3724,16 +3702,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3748,7 +3718,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3756,14 +3726,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3771,7 +3755,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3788,6 +3772,37 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3885,13 +3900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3903,43 +3924,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3951,67 +3960,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4029,13 +3984,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4053,13 +4044,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4305,23 +4320,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4350,11 +4374,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4369,21 +4399,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4407,10 +4422,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4419,133 +4434,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9078,8 +9093,8 @@
   </sheetPr>
   <dimension ref="A1:R655"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="C575" sqref="C575"/>
+    <sheetView tabSelected="1" topLeftCell="C497" workbookViewId="0">
+      <selection activeCell="F567" sqref="F567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15178,7 +15193,7 @@
     <row r="346" s="1" customFormat="1" ht="11.25" outlineLevel="2" spans="11:11">
       <c r="K346" s="65"/>
     </row>
-    <row r="347" s="2" customFormat="1" ht="12.75" outlineLevel="2" collapsed="1" spans="3:13">
+    <row r="347" s="2" customFormat="1" ht="12.75" outlineLevel="2" spans="3:13">
       <c r="C347" s="80" t="s">
         <v>645</v>
       </c>
@@ -15193,7 +15208,7 @@
       <c r="K347" s="68"/>
       <c r="M347" s="69"/>
     </row>
-    <row r="348" s="3" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="348" s="3" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B348" s="45" t="s">
         <v>341</v>
       </c>
@@ -15225,7 +15240,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="349" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="349" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B349" s="49">
         <v>2</v>
       </c>
@@ -15249,7 +15264,7 @@
       <c r="J349" s="71"/>
       <c r="K349" s="72"/>
     </row>
-    <row r="350" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="350" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B350" s="49"/>
       <c r="C350" s="31" t="s">
         <v>699</v>
@@ -15271,7 +15286,7 @@
       <c r="J350" s="71"/>
       <c r="K350" s="72"/>
     </row>
-    <row r="351" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="351" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B351" s="49"/>
       <c r="C351" s="31" t="s">
         <v>538</v>
@@ -15293,7 +15308,7 @@
       <c r="J351" s="71"/>
       <c r="K351" s="72"/>
     </row>
-    <row r="352" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="352" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B352" s="49"/>
       <c r="C352" s="31" t="s">
         <v>701</v>
@@ -15315,7 +15330,7 @@
       <c r="J352" s="71"/>
       <c r="K352" s="72"/>
     </row>
-    <row r="353" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="353" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B353" s="49"/>
       <c r="C353" s="31" t="s">
         <v>520</v>
@@ -15337,7 +15352,7 @@
       <c r="J353" s="71"/>
       <c r="K353" s="72"/>
     </row>
-    <row r="354" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="354" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B354" s="49"/>
       <c r="C354" s="31" t="s">
         <v>591</v>
@@ -15359,7 +15374,7 @@
       <c r="J354" s="71"/>
       <c r="K354" s="72"/>
     </row>
-    <row r="355" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="355" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B355" s="49"/>
       <c r="C355" s="31" t="s">
         <v>45</v>
@@ -15381,7 +15396,7 @@
       <c r="J355" s="71"/>
       <c r="K355" s="72"/>
     </row>
-    <row r="356" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="356" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B356" s="49"/>
       <c r="C356" s="31" t="s">
         <v>41</v>
@@ -15403,7 +15418,7 @@
       <c r="J356" s="71"/>
       <c r="K356" s="72"/>
     </row>
-    <row r="357" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="357" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B357" s="49"/>
       <c r="C357" s="31" t="s">
         <v>511</v>
@@ -15425,7 +15440,7 @@
       <c r="J357" s="71"/>
       <c r="K357" s="72"/>
     </row>
-    <row r="358" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="358" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B358" s="49"/>
       <c r="C358" s="31" t="s">
         <v>705</v>
@@ -15447,7 +15462,7 @@
       <c r="J358" s="71"/>
       <c r="K358" s="72"/>
     </row>
-    <row r="359" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="359" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B359" s="49"/>
       <c r="C359" s="31" t="s">
         <v>707</v>
@@ -15469,7 +15484,7 @@
       <c r="J359" s="71"/>
       <c r="K359" s="72"/>
     </row>
-    <row r="360" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="360" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B360" s="73"/>
       <c r="C360" s="74"/>
       <c r="D360" s="74"/>
@@ -15484,7 +15499,7 @@
     <row r="361" s="1" customFormat="1" ht="11.25" outlineLevel="2" spans="11:11">
       <c r="K361" s="65"/>
     </row>
-    <row r="362" s="2" customFormat="1" ht="12.75" outlineLevel="2" collapsed="1" spans="3:13">
+    <row r="362" s="2" customFormat="1" ht="12.75" outlineLevel="2" spans="3:13">
       <c r="C362" s="80" t="s">
         <v>647</v>
       </c>
@@ -15499,7 +15514,7 @@
       <c r="K362" s="68"/>
       <c r="M362" s="69"/>
     </row>
-    <row r="363" s="3" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="363" s="3" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B363" s="45" t="s">
         <v>341</v>
       </c>
@@ -15531,7 +15546,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="364" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="364" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B364" s="49"/>
       <c r="C364" s="31" t="s">
         <v>709</v>
@@ -15553,7 +15568,7 @@
       <c r="J364" s="71"/>
       <c r="K364" s="72"/>
     </row>
-    <row r="365" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="365" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B365" s="49"/>
       <c r="C365" s="31" t="s">
         <v>711</v>
@@ -15575,7 +15590,7 @@
       <c r="J365" s="71"/>
       <c r="K365" s="72"/>
     </row>
-    <row r="366" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="366" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B366" s="49">
         <v>2</v>
       </c>
@@ -15599,7 +15614,7 @@
       <c r="J366" s="71"/>
       <c r="K366" s="72"/>
     </row>
-    <row r="367" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="367" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B367" s="49"/>
       <c r="C367" s="31" t="s">
         <v>714</v>
@@ -15621,7 +15636,7 @@
       <c r="J367" s="71"/>
       <c r="K367" s="72"/>
     </row>
-    <row r="368" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="368" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B368" s="49"/>
       <c r="C368" s="31" t="s">
         <v>551</v>
@@ -15645,7 +15660,7 @@
       </c>
       <c r="K368" s="72"/>
     </row>
-    <row r="369" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="369" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B369" s="49"/>
       <c r="C369" s="31" t="s">
         <v>718</v>
@@ -15669,7 +15684,7 @@
       <c r="J369" s="71"/>
       <c r="K369" s="72"/>
     </row>
-    <row r="370" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="370" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B370" s="73"/>
       <c r="C370" s="74"/>
       <c r="D370" s="74"/>
@@ -18256,7 +18271,7 @@
         <v>2</v>
       </c>
       <c r="C510" s="118" t="s">
-        <v>771</v>
+        <v>820</v>
       </c>
       <c r="D510" s="118" t="s">
         <v>6</v>
@@ -18482,7 +18497,7 @@
     <row r="522" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B522" s="49"/>
       <c r="C522" s="31" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D522" s="31" t="s">
         <v>6</v>
@@ -18528,7 +18543,7 @@
         <v>2</v>
       </c>
       <c r="C524" s="31" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D524" s="31" t="s">
         <v>300</v>
@@ -18544,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="I524" s="33" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="J524" s="71"/>
       <c r="K524" s="72"/>
@@ -18568,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="I525" s="33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J525" s="71"/>
       <c r="K525" s="72"/>
@@ -18576,7 +18591,7 @@
     <row r="526" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B526" s="49"/>
       <c r="C526" s="31" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D526" s="31" t="s">
         <v>300</v>
@@ -18592,11 +18607,11 @@
         <v>0</v>
       </c>
       <c r="I526" s="33" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J526" s="71"/>
       <c r="K526" s="84" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="527" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
@@ -18616,7 +18631,7 @@
     </row>
     <row r="529" s="2" customFormat="1" ht="12.75" outlineLevel="2" collapsed="1" spans="3:13">
       <c r="C529" s="80" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D529" s="42" t="s">
         <v>675</v>
@@ -18664,7 +18679,7 @@
     <row r="531" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B531" s="49"/>
       <c r="C531" s="31" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D531" s="31" t="s">
         <v>302</v>
@@ -18678,7 +18693,7 @@
       </c>
       <c r="H531" s="51"/>
       <c r="I531" s="33" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="J531" s="71"/>
       <c r="K531" s="72"/>
@@ -18710,7 +18725,7 @@
         <v>2</v>
       </c>
       <c r="C533" s="31" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D533" s="31" t="s">
         <v>6</v>
@@ -18722,7 +18737,7 @@
       </c>
       <c r="H533" s="51"/>
       <c r="I533" s="33" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J533" s="71" t="s">
         <v>776</v>
@@ -18732,7 +18747,7 @@
     <row r="534" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B534" s="49"/>
       <c r="C534" s="31" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D534" s="31" t="s">
         <v>6</v>
@@ -18744,10 +18759,10 @@
       </c>
       <c r="H534" s="51"/>
       <c r="I534" s="33" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="J534" s="71" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="K534" s="72"/>
     </row>
@@ -18958,7 +18973,7 @@
     <row r="546" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B546" s="49"/>
       <c r="C546" s="31" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D546" s="31" t="s">
         <v>6</v>
@@ -18973,7 +18988,7 @@
         <v>814</v>
       </c>
       <c r="J546" s="71" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K546" s="72"/>
     </row>
@@ -19018,7 +19033,7 @@
       </c>
       <c r="H548" s="51"/>
       <c r="I548" s="33" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="J548" s="71"/>
       <c r="K548" s="72"/>
@@ -19052,7 +19067,7 @@
     </row>
     <row r="552" s="2" customFormat="1" ht="12.75" outlineLevel="2" collapsed="1" spans="3:13">
       <c r="C552" s="80" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D552" s="42" t="s">
         <v>680</v>
@@ -19100,7 +19115,7 @@
     <row r="554" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B554" s="49"/>
       <c r="C554" s="31" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D554" s="31" t="s">
         <v>302</v>
@@ -19114,7 +19129,7 @@
       </c>
       <c r="H554" s="51"/>
       <c r="I554" s="33" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="J554" s="71"/>
       <c r="K554" s="72"/>
@@ -19134,7 +19149,7 @@
       </c>
       <c r="H555" s="51"/>
       <c r="I555" s="33" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="J555" s="71" t="s">
         <v>772</v>
@@ -19146,7 +19161,7 @@
         <v>2</v>
       </c>
       <c r="C556" s="31" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D556" s="31" t="s">
         <v>6</v>
@@ -19158,7 +19173,7 @@
       </c>
       <c r="H556" s="51"/>
       <c r="I556" s="33" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J556" s="71" t="s">
         <v>776</v>
@@ -19168,7 +19183,7 @@
     <row r="557" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B557" s="49"/>
       <c r="C557" s="31" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D557" s="31" t="s">
         <v>6</v>
@@ -19180,10 +19195,10 @@
       </c>
       <c r="H557" s="51"/>
       <c r="I557" s="33" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="J557" s="71" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="K557" s="72"/>
     </row>
@@ -19346,7 +19361,7 @@
     </row>
     <row r="567" s="2" customFormat="1" ht="12.75" outlineLevel="2" collapsed="1" spans="3:13">
       <c r="C567" s="80" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D567" s="42" t="s">
         <v>682</v>
@@ -19394,7 +19409,7 @@
     <row r="569" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B569" s="49"/>
       <c r="C569" s="31" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D569" s="31" t="s">
         <v>6</v>
@@ -19406,7 +19421,7 @@
       </c>
       <c r="H569" s="51"/>
       <c r="I569" s="33" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="J569" s="71" t="s">
         <v>801</v>
@@ -19454,7 +19469,7 @@
       </c>
       <c r="H571" s="51"/>
       <c r="I571" s="33" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="J571" s="71"/>
       <c r="K571" s="72"/>
@@ -19488,10 +19503,10 @@
     </row>
     <row r="575" s="2" customFormat="1" ht="12.75" outlineLevel="2" collapsed="1" spans="3:13">
       <c r="C575" s="117" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D575" s="42" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="E575" s="42"/>
       <c r="F575" s="43"/>
@@ -19536,7 +19551,7 @@
     <row r="577" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B577" s="49"/>
       <c r="C577" s="31" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D577" s="31" t="s">
         <v>302</v>
@@ -19550,7 +19565,7 @@
       </c>
       <c r="H577" s="51"/>
       <c r="I577" s="33" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="J577" s="71"/>
       <c r="K577" s="72"/>
@@ -19582,7 +19597,7 @@
         <v>2</v>
       </c>
       <c r="C579" s="31" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D579" s="31" t="s">
         <v>6</v>
@@ -19594,19 +19609,19 @@
       </c>
       <c r="H579" s="51"/>
       <c r="I579" s="33" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="J579" s="71" t="s">
         <v>776</v>
       </c>
       <c r="K579" s="84" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="580" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B580" s="49"/>
       <c r="C580" s="31" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D580" s="31" t="s">
         <v>6</v>
@@ -19618,17 +19633,17 @@
       </c>
       <c r="H580" s="51"/>
       <c r="I580" s="33" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="J580" s="71" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="K580" s="72"/>
     </row>
     <row r="581" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
       <c r="B581" s="49"/>
       <c r="C581" s="31" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D581" s="31" t="s">
         <v>10</v>
@@ -19640,7 +19655,7 @@
       </c>
       <c r="H581" s="51"/>
       <c r="I581" s="33" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="J581" s="71"/>
       <c r="K581" s="72"/>
@@ -19664,7 +19679,7 @@
         <v>0</v>
       </c>
       <c r="I582" s="33" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="J582" s="71"/>
       <c r="K582" s="72"/>
@@ -19716,12 +19731,12 @@
     <row r="586" s="1" customFormat="1" ht="11.25" outlineLevel="2" spans="11:11">
       <c r="K586" s="65"/>
     </row>
-    <row r="587" s="2" customFormat="1" ht="12.75" outlineLevel="2" collapsed="1" spans="3:13">
+    <row r="587" s="2" customFormat="1" ht="12.75" outlineLevel="2" spans="3:13">
       <c r="C587" s="117" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="D587" s="42" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="E587" s="42"/>
       <c r="F587" s="43"/>
@@ -19731,7 +19746,7 @@
       <c r="K587" s="68"/>
       <c r="M587" s="69"/>
     </row>
-    <row r="588" s="3" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="588" s="3" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B588" s="45" t="s">
         <v>341</v>
       </c>
@@ -19763,10 +19778,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="589" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="589" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B589" s="49"/>
       <c r="C589" s="31" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D589" s="31" t="s">
         <v>6</v>
@@ -19778,14 +19793,14 @@
       </c>
       <c r="H589" s="51"/>
       <c r="I589" s="33" t="s">
-        <v>814</v>
+        <v>862</v>
       </c>
       <c r="J589" s="71" t="s">
         <v>801</v>
       </c>
       <c r="K589" s="72"/>
     </row>
-    <row r="590" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="590" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B590" s="49"/>
       <c r="C590" s="31" t="s">
         <v>752</v>
@@ -19807,7 +19822,7 @@
       </c>
       <c r="K590" s="72"/>
     </row>
-    <row r="591" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="591" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B591" s="49">
         <v>2</v>
       </c>
@@ -19826,12 +19841,12 @@
       </c>
       <c r="H591" s="51"/>
       <c r="I591" s="33" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="J591" s="71"/>
       <c r="K591" s="72"/>
     </row>
-    <row r="592" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="592" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B592" s="49"/>
       <c r="C592" s="31" t="s">
         <v>736</v>
@@ -19848,15 +19863,15 @@
       </c>
       <c r="H592" s="51"/>
       <c r="I592" s="33" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="J592" s="71"/>
       <c r="K592" s="72"/>
     </row>
-    <row r="593" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="593" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B593" s="49"/>
       <c r="C593" s="31" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="D593" s="31" t="s">
         <v>300</v>
@@ -19870,12 +19885,12 @@
       </c>
       <c r="H593" s="51"/>
       <c r="I593" s="33" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="J593" s="71"/>
       <c r="K593" s="72"/>
     </row>
-    <row r="594" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="594" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B594" s="49"/>
       <c r="C594" s="31" t="s">
         <v>784</v>
@@ -19892,12 +19907,12 @@
       </c>
       <c r="H594" s="51"/>
       <c r="I594" s="33" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="J594" s="71"/>
       <c r="K594" s="72"/>
     </row>
-    <row r="595" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="3" spans="2:11">
+    <row r="595" s="4" customFormat="1" ht="12.75" outlineLevel="3" spans="2:11">
       <c r="B595" s="73"/>
       <c r="C595" s="74"/>
       <c r="D595" s="74"/>
@@ -19935,31 +19950,31 @@
     </row>
     <row r="604" s="1" customFormat="1" ht="11.25" spans="3:11">
       <c r="C604" s="78" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="K604" s="65"/>
     </row>
     <row r="605" s="1" customFormat="1" ht="11.25" outlineLevel="1" collapsed="1" spans="3:11">
       <c r="C605" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="K605" s="65"/>
     </row>
     <row r="606" s="1" customFormat="1" ht="11.25" hidden="1" outlineLevel="2" spans="3:11">
       <c r="C606" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="K606" s="65"/>
     </row>
     <row r="607" s="1" customFormat="1" ht="11.25" hidden="1" outlineLevel="2" spans="3:11">
       <c r="C607" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="D607" s="131" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="K607" s="65"/>
     </row>
@@ -19978,10 +19993,10 @@
     </row>
     <row r="612" s="2" customFormat="1" ht="12.75" outlineLevel="1" collapsed="1" spans="3:13">
       <c r="C612" s="80" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="D612" s="42" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="E612" s="42"/>
       <c r="F612" s="43"/>
@@ -20042,7 +20057,7 @@
       </c>
       <c r="H614" s="51"/>
       <c r="I614" s="33" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="J614" s="88"/>
       <c r="K614" s="72"/>
@@ -20052,7 +20067,7 @@
         <v>3</v>
       </c>
       <c r="C615" s="31" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="D615" s="31" t="s">
         <v>302</v>
@@ -20076,7 +20091,7 @@
         <v>4</v>
       </c>
       <c r="C616" s="31" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D616" s="31" t="s">
         <v>296</v>
@@ -20090,11 +20105,11 @@
       </c>
       <c r="H616" s="51"/>
       <c r="I616" s="33" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="J616" s="71"/>
       <c r="K616" s="84" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="617" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="2" spans="2:11">
@@ -20116,7 +20131,7 @@
       </c>
       <c r="H617" s="51"/>
       <c r="I617" s="33" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="J617" s="71"/>
       <c r="K617" s="72"/>
@@ -20172,7 +20187,7 @@
         <v>8</v>
       </c>
       <c r="C620" s="31" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="D620" s="31" t="s">
         <v>48</v>
@@ -20194,7 +20209,7 @@
         <v>9</v>
       </c>
       <c r="C621" s="31" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D621" s="31" t="s">
         <v>6</v>
@@ -20206,10 +20221,10 @@
       </c>
       <c r="H621" s="51"/>
       <c r="I621" s="33" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="J621" s="71" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="K621" s="72"/>
     </row>
@@ -20252,10 +20267,10 @@
     <row r="625" outlineLevel="1"/>
     <row r="626" s="2" customFormat="1" ht="12.75" outlineLevel="1" collapsed="1" spans="3:13">
       <c r="C626" s="80" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="D626" s="42" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="E626" s="42"/>
       <c r="F626" s="43"/>
@@ -20302,7 +20317,7 @@
         <v>2</v>
       </c>
       <c r="C628" s="31" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="D628" s="31" t="s">
         <v>302</v>
@@ -20340,11 +20355,11 @@
       </c>
       <c r="H629" s="140"/>
       <c r="I629" s="143" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="J629" s="144"/>
       <c r="K629" s="145" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="630" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="2" spans="2:11">
@@ -20377,7 +20392,7 @@
         <v>152</v>
       </c>
       <c r="D633" s="42" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="E633" s="42"/>
       <c r="F633" s="43"/>
@@ -20441,11 +20456,11 @@
         <v>0</v>
       </c>
       <c r="I635" s="147" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="J635" s="71"/>
       <c r="K635" s="158" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="636" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="2" spans="2:11">
@@ -20465,7 +20480,7 @@
       </c>
       <c r="H636" s="51"/>
       <c r="I636" s="33" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="J636" s="110"/>
       <c r="K636" s="72"/>
@@ -20475,7 +20490,7 @@
         <v>4</v>
       </c>
       <c r="C637" s="31" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="D637" s="31" t="s">
         <v>6</v>
@@ -20487,10 +20502,10 @@
       </c>
       <c r="H637" s="51"/>
       <c r="I637" s="33" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="J637" s="110" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="K637" s="72"/>
     </row>
@@ -20576,11 +20591,11 @@
         <v>0</v>
       </c>
       <c r="I642" s="147" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="J642" s="71"/>
       <c r="K642" s="158" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="643" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="2" spans="2:11">
@@ -20600,7 +20615,7 @@
       </c>
       <c r="H643" s="51"/>
       <c r="I643" s="33" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="J643" s="110"/>
       <c r="K643" s="72"/>
@@ -20610,7 +20625,7 @@
         <v>4</v>
       </c>
       <c r="C644" s="31" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="D644" s="31" t="s">
         <v>6</v>
@@ -20622,10 +20637,10 @@
       </c>
       <c r="H644" s="51"/>
       <c r="I644" s="33" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="J644" s="110" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="K644" s="72"/>
     </row>
@@ -20650,7 +20665,7 @@
       </c>
       <c r="J645" s="110"/>
       <c r="K645" s="72" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
     </row>
     <row r="646" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="2" spans="2:11">
@@ -20668,13 +20683,13 @@
     <row r="647" outlineLevel="1"/>
     <row r="648" s="2" customFormat="1" outlineLevel="1" collapsed="1" spans="3:13">
       <c r="C648" s="148" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="D648" s="149" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="E648" s="41" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="F648" s="43"/>
       <c r="G648" s="141"/>
@@ -20716,7 +20731,7 @@
         <v>349</v>
       </c>
       <c r="L649" s="150" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="650" s="4" customFormat="1" ht="36" hidden="1" outlineLevel="2" spans="2:11">
@@ -20740,11 +20755,11 @@
         <v>0</v>
       </c>
       <c r="I650" s="147" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="J650" s="71"/>
       <c r="K650" s="158" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="651" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="2" spans="2:11">
@@ -20764,7 +20779,7 @@
       </c>
       <c r="H651" s="51"/>
       <c r="I651" s="33" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="J651" s="110"/>
       <c r="K651" s="72"/>
@@ -20786,17 +20801,17 @@
       </c>
       <c r="H652" s="51"/>
       <c r="I652" s="33" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="J652" s="151" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="K652" s="84"/>
     </row>
     <row r="653" s="4" customFormat="1" ht="12.75" hidden="1" outlineLevel="2" spans="2:12">
       <c r="B653" s="49"/>
       <c r="C653" s="128" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="D653" s="31" t="s">
         <v>296</v>
@@ -20812,11 +20827,11 @@
         <v>0</v>
       </c>
       <c r="I653" s="33" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="J653" s="71"/>
       <c r="K653" s="84" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="L653" s="152">
         <v>40500</v>
